--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_17-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_17-05.xlsx
@@ -74,6 +74,15 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -110,16 +119,10 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>GROZA 20 TABS.</t>
   </si>
   <si>
     <t>0:1</t>
-  </si>
-  <si>
-    <t>0:2</t>
   </si>
   <si>
     <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
@@ -1047,17 +1050,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1065,7 +1068,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1073,17 +1076,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1091,7 +1094,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1099,17 +1102,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>-16</v>
+        <v>120</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1117,7 +1120,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1125,17 +1128,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>52</v>
+        <v>-16</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1143,7 +1146,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1157,11 +1160,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1169,7 +1172,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1177,17 +1180,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1195,7 +1198,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1203,17 +1206,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1221,7 +1224,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1229,13 +1232,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1247,7 +1250,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1255,13 +1258,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1273,7 +1276,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1281,17 +1284,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1299,7 +1302,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1307,17 +1310,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1333,17 +1336,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1359,13 +1362,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1377,7 +1380,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1385,13 +1388,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1411,17 +1414,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1437,17 +1440,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1455,7 +1458,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1463,17 +1466,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1489,17 +1492,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1515,17 +1518,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1541,17 +1544,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1559,7 +1562,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1567,17 +1570,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1585,7 +1588,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1593,13 +1596,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1619,13 +1622,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1645,13 +1648,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1671,17 +1674,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1697,13 +1700,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1715,7 +1718,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1723,17 +1726,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1749,17 +1752,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1767,7 +1770,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1775,17 +1778,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1801,17 +1804,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1827,17 +1830,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1853,17 +1856,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1871,7 +1874,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1879,17 +1882,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1905,17 +1908,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1931,13 +1934,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1957,17 +1960,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1983,17 +1986,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2009,17 +2012,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2035,17 +2038,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>25</v>
+        <v>-96</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2061,13 +2064,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2087,17 +2090,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>14.67</v>
+        <v>53</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2105,7 +2108,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2113,17 +2116,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2139,17 +2142,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2165,17 +2168,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2191,17 +2194,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2209,7 +2212,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2217,17 +2220,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2243,17 +2246,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2261,7 +2264,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2269,17 +2272,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2295,17 +2298,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2321,13 +2324,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2347,51 +2350,77 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="K62" s="10">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>59</v>
+      </c>
+      <c t="s" r="B62" s="7">
+        <v>88</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c t="s" r="H62" s="8">
+        <v>9</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9">
+        <v>20</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c t="s" r="N62" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="K63" s="10">
         <v>3215.1300000000001</v>
       </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="11">
-        <v>88</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c t="s" r="F63" s="12">
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+    </row>
+    <row r="64" ht="17.25" customHeight="1">
+      <c t="s" r="A64" s="11">
         <v>89</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c t="s" r="I63" s="14">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c t="s" r="F64" s="12">
         <v>90</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13"/>
+      <c t="s" r="I64" s="14">
+        <v>91</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="188">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2573,10 +2602,13 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="I64:N64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
